--- a/biology/Origine et évolution du vivant/Distance_génétique_(génétique_des_populations)/Distance_génétique_(génétique_des_populations).xlsx
+++ b/biology/Origine et évolution du vivant/Distance_génétique_(génétique_des_populations)/Distance_génétique_(génétique_des_populations).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
+          <t>Distance_génétique_(génétique_des_populations)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En taxonomie, la distance génétique est une mesure de la divergence génétique entre deux populations ou molécules[H 1]. 
 Historiquement, cette mesure était uniquement déduite des différences de fréquence allélique, mais aujourd'hui d’autres informations sont aussi parfois utilisées[H 1].
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
+          <t>Distance_génétique_(génétique_des_populations)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Méthodes de calcul</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs méthodes de calcul de la distance génétique ont été proposées. Sont ici indiquées les plus courantes.
 Tout le long de cet article, nous noterons 
@@ -533,8 +547,43 @@
         L
     {\displaystyle L}
  loci.
-Distance génétique de Nei
-Cette mesure a été proposée en 1972[R 1] par le biologiste nippo-américain Masatoshi Nei sous la forme suivante :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Distance_génétique_(génétique_des_populations)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Méthodes de calcul</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Distance génétique de Nei</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette mesure a été proposée en 1972[R 1] par le biologiste nippo-américain Masatoshi Nei sous la forme suivante :
                 D
                 =
                 −
@@ -574,44 +623,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Représentations graphiques</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On souhaite souvent comparer plus de quatre populations ou molécules ce qui pose le problème d’une représentation efficace de ces données. La solution généralement adoptée consiste à ramener les données à une représentation en deux ou trois dimensions, à l’aide des méthodes développées en statistique multivariée, et notamment l’analyse en composantes principales[H 2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
+          <t>Distance_génétique_(génétique_des_populations)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,10 +644,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Représentations graphiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On souhaite souvent comparer plus de quatre populations ou molécules ce qui pose le problème d’une représentation efficace de ces données. La solution généralement adoptée consiste à ramener les données à une représentation en deux ou trois dimensions, à l’aide des méthodes développées en statistique multivariée, et notamment l’analyse en composantes principales[H 2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Distance_génétique_(génétique_des_populations)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Distance_g%C3%A9n%C3%A9tique_(g%C3%A9n%C3%A9tique_des_populations)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation en phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
